--- a/biology/Botanique/Iris_spuria_subsp._maritima/Iris_spuria_subsp._maritima.xlsx
+++ b/biology/Botanique/Iris_spuria_subsp._maritima/Iris_spuria_subsp._maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'iris maritime, Iris spuria subsp. maritima, est une plante appartenant au genre Iris et à la famille des iridacées. Ses fleurs sont violettes ou bleues, inodores. C'est une plante méditerranéenne et Atlantique de prairies humides, marais et coteaux calcaires du littoral.
 </t>
@@ -513,16 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace à rhizome elle apprécie les prairies humides et coteaux surtout maritimes de la Provence, du Languedoc, du Roussillon, de la Charente-Maritime et de la Vendée.
-La floraison a lieu de mai à juin[1].
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace à rhizome elle apprécie les prairies humides et coteaux surtout maritimes de la Provence, du Languedoc, du Roussillon, de la Charente-Maritime et de la Vendée.
+La floraison a lieu de mai à juin.
 Pollinisation : entomogame
-Dissémination : barochore
-Morphologie générale et végétative
-Morphologie florale
-Iris Spuria possède 3 étamines dont les anthères sont sagitées et extrorses, ainsi que 3 pétales et 3 sépales.
-Fruit et graines
-Le fruit est une capsule à trois loges comportant de nombreuses graines.
+Dissémination : barochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Iris_spuria_subsp._maritima</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_spuria_subsp._maritima</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iris Spuria possède 3 étamines dont les anthères sont sagitées et extrorses, ainsi que 3 pétales et 3 sépales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Iris_spuria_subsp._maritima</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iris_spuria_subsp._maritima</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule à trois loges comportant de nombreuses graines.
 </t>
         </is>
       </c>
